--- a/Assets/Doc/皮肤等JSON数据表.xlsx
+++ b/Assets/Doc/皮肤等JSON数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="17580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="皮肤" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>固定文件</t>
   </si>
@@ -96,13 +96,43 @@
     <t>level</t>
   </si>
   <si>
+    <t>估算数值</t>
+  </si>
+  <si>
     <t>null</t>
   </si>
   <si>
-    <t>基础(1-5)</t>
+    <t>商城</t>
+  </si>
+  <si>
+    <t>￥</t>
+  </si>
+  <si>
+    <t>对应金币</t>
+  </si>
+  <si>
+    <t>基础数值</t>
+  </si>
+  <si>
+    <t>计算公式</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>(1-5)</t>
   </si>
   <si>
     <t>(基础+击落飞机*3)*(1+当前火力*0.2)</t>
+  </si>
+  <si>
+    <t>分数</t>
+  </si>
+  <si>
+    <t>(1-20)</t>
+  </si>
+  <si>
+    <t>(基础+击落飞机*9)*(1+当前火力*0.27)</t>
   </si>
   <si>
     <t>http://tool.chinaz.com/tools/jsoneditor.aspx</t>
@@ -121,8 +151,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -149,29 +179,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,36 +192,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,7 +221,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,6 +245,34 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,7 +294,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,7 +302,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,13 +342,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,37 +408,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,19 +432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,61 +444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,25 +462,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,6 +533,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -530,46 +575,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,6 +599,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -603,6 +622,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -611,10 +641,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,19 +653,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,116 +674,116 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -777,6 +807,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1304,10 +1337,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R109"/>
+  <dimension ref="A1:T109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1317,6 +1350,7 @@
     <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="6" max="6" width="12.625"/>
     <col min="8" max="8" width="12.625"/>
+    <col min="9" max="9" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="11:14">
@@ -1387,7 +1421,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1411,6 +1445,9 @@
       </c>
       <c r="H6" t="s">
         <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1421,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1623,7 +1660,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="5:11">
+    <row r="15" spans="5:18">
       <c r="E15">
         <v>9</v>
       </c>
@@ -1646,6 +1683,15 @@
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
+      <c r="P15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>29</v>
+      </c>
+      <c r="R15" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="5:18">
       <c r="E16">
@@ -1670,6 +1716,7 @@
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
+      <c r="P16" s="8"/>
       <c r="Q16">
         <v>6</v>
       </c>
@@ -1700,6 +1747,7 @@
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
+      <c r="P17" s="8"/>
       <c r="Q17">
         <v>10</v>
       </c>
@@ -1730,6 +1778,7 @@
         <f t="shared" si="3"/>
         <v>68</v>
       </c>
+      <c r="P18" s="8"/>
       <c r="Q18">
         <v>20</v>
       </c>
@@ -1761,7 +1810,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="5:15">
+    <row r="20" spans="5:20">
       <c r="E20">
         <v>14</v>
       </c>
@@ -1784,11 +1833,17 @@
         <f t="shared" si="3"/>
         <v>76</v>
       </c>
-      <c r="O20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="5:17">
+      <c r="P20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+    </row>
+    <row r="21" spans="5:20">
       <c r="E21">
         <v>15</v>
       </c>
@@ -1811,12 +1866,20 @@
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="P21" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="8"/>
-    </row>
-    <row r="22" spans="5:11">
+      <c r="O21" t="s">
+        <v>33</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+    </row>
+    <row r="22" spans="5:20">
       <c r="E22">
         <v>16</v>
       </c>
@@ -1839,6 +1902,18 @@
         <f t="shared" si="3"/>
         <v>84</v>
       </c>
+      <c r="O22" t="s">
+        <v>36</v>
+      </c>
+      <c r="P22" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
     </row>
     <row r="23" spans="5:11">
       <c r="E23">
@@ -1864,7 +1939,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="5:16">
+    <row r="24" spans="5:11">
       <c r="E24">
         <v>18</v>
       </c>
@@ -1887,9 +1962,6 @@
         <f t="shared" si="3"/>
         <v>92</v>
       </c>
-      <c r="P24">
-        <v>20</v>
-      </c>
     </row>
     <row r="25" spans="5:11">
       <c r="E25">
@@ -3860,17 +3932,21 @@
       </c>
     </row>
     <row r="109" spans="3:3">
-      <c r="C109" s="9" t="s">
-        <v>29</v>
+      <c r="C109" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="P15:P18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C109" r:id="rId1" display="http://tool.chinaz.com/tools/jsoneditor.aspx"/>
@@ -4027,7 +4103,7 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4121,7 +4197,7 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B25">
         <v>20</v>

--- a/Assets/Doc/皮肤等JSON数据表.xlsx
+++ b/Assets/Doc/皮肤等JSON数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="17580" activeTab="1"/>
+    <workbookView windowHeight="17940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="皮肤" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>固定文件</t>
   </si>
@@ -133,6 +133,24 @@
   </si>
   <si>
     <t>(基础+击落飞机*9)*(1+当前火力*0.27)</t>
+  </si>
+  <si>
+    <t>升级所需金币（HP）</t>
+  </si>
+  <si>
+    <t>5 *1.09 *Lv</t>
+  </si>
+  <si>
+    <t>升级所需金币（ATK）</t>
+  </si>
+  <si>
+    <t>7 *1.08 *Lv</t>
+  </si>
+  <si>
+    <t>排行榜</t>
+  </si>
+  <si>
+    <t>1000+（100*击落飞机）+（Lv*50）+Random（1-Lv*10）</t>
   </si>
   <si>
     <t>http://tool.chinaz.com/tools/jsoneditor.aspx</t>
@@ -151,8 +169,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -179,6 +197,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -188,10 +265,24 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,82 +310,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,10 +325,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -342,13 +360,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,7 +426,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,73 +504,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,79 +528,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,39 +565,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,6 +610,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -633,6 +636,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -641,10 +659,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -653,19 +671,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -674,121 +692,124 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -811,8 +832,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
@@ -1178,15 +1205,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -1197,10 +1224,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
@@ -1339,7 +1366,7 @@
   <sheetPr/>
   <dimension ref="A1:T109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
@@ -1351,16 +1378,21 @@
     <col min="6" max="6" width="12.625"/>
     <col min="8" max="8" width="12.625"/>
     <col min="9" max="9" width="9.125" customWidth="1"/>
+    <col min="15" max="15" width="21.375" customWidth="1"/>
+    <col min="16" max="16" width="9" style="2"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="18" max="19" width="9.75" customWidth="1"/>
+    <col min="20" max="20" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="11:14">
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>8</v>
       </c>
       <c r="N1" t="s">
@@ -1368,10 +1400,10 @@
       </c>
     </row>
     <row r="2" spans="5:6">
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
@@ -1394,32 +1426,32 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
@@ -1570,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
+        <f>INT(5*POWER(1.09,G11))</f>
         <v>7</v>
       </c>
       <c r="J11">
@@ -1629,10 +1661,10 @@
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="9">
         <v>2</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1683,7 +1715,7 @@
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="P15" s="8" t="s">
+      <c r="P15" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Q15" t="s">
@@ -1716,7 +1748,7 @@
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="P16" s="8"/>
+      <c r="P16" s="3"/>
       <c r="Q16">
         <v>6</v>
       </c>
@@ -1747,7 +1779,7 @@
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="P17" s="8"/>
+      <c r="P17" s="3"/>
       <c r="Q17">
         <v>10</v>
       </c>
@@ -1778,7 +1810,7 @@
         <f t="shared" si="3"/>
         <v>68</v>
       </c>
-      <c r="P18" s="8"/>
+      <c r="P18" s="3"/>
       <c r="Q18">
         <v>20</v>
       </c>
@@ -1833,15 +1865,15 @@
         <f t="shared" si="3"/>
         <v>76</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q20" s="8" t="s">
+      <c r="Q20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
     </row>
     <row r="21" spans="5:20">
       <c r="E21">
@@ -1869,15 +1901,15 @@
       <c r="O21" t="s">
         <v>33</v>
       </c>
-      <c r="P21" s="9" t="s">
+      <c r="P21" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="Q21" s="8" t="s">
+      <c r="Q21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
     </row>
     <row r="22" spans="5:20">
       <c r="E22">
@@ -1905,17 +1937,17 @@
       <c r="O22" t="s">
         <v>36</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q22" s="8" t="s">
+      <c r="Q22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-    </row>
-    <row r="23" spans="5:11">
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+    </row>
+    <row r="23" spans="5:20">
       <c r="E23">
         <v>17</v>
       </c>
@@ -1938,8 +1970,20 @@
         <f t="shared" si="3"/>
         <v>88</v>
       </c>
-    </row>
-    <row r="24" spans="5:11">
+      <c r="O23" t="s">
+        <v>39</v>
+      </c>
+      <c r="P23" s="12">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+    </row>
+    <row r="24" spans="5:20">
       <c r="E24">
         <v>18</v>
       </c>
@@ -1962,8 +2006,20 @@
         <f t="shared" si="3"/>
         <v>92</v>
       </c>
-    </row>
-    <row r="25" spans="5:11">
+      <c r="O24" t="s">
+        <v>41</v>
+      </c>
+      <c r="P24" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+    </row>
+    <row r="25" spans="5:20">
       <c r="E25">
         <v>19</v>
       </c>
@@ -1986,6 +2042,18 @@
         <f t="shared" si="3"/>
         <v>96</v>
       </c>
+      <c r="O25" t="s">
+        <v>43</v>
+      </c>
+      <c r="P25" s="2">
+        <v>1000</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
     </row>
     <row r="26" spans="5:11">
       <c r="E26">
@@ -3932,12 +4000,12 @@
       </c>
     </row>
     <row r="109" spans="3:3">
-      <c r="C109" s="10" t="s">
-        <v>39</v>
+      <c r="C109" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:D5"/>
@@ -3946,6 +4014,9 @@
     <mergeCell ref="Q20:T20"/>
     <mergeCell ref="Q21:T21"/>
     <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="Q25:T25"/>
     <mergeCell ref="P15:P18"/>
   </mergeCells>
   <hyperlinks>
@@ -4103,7 +4174,7 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4197,7 +4268,7 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>20</v>

--- a/Assets/Doc/皮肤等JSON数据表.xlsx
+++ b/Assets/Doc/皮肤等JSON数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="1"/>
+    <workbookView windowWidth="21000" windowHeight="15240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="皮肤" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>固定文件</t>
   </si>
@@ -84,13 +84,10 @@
     <t>gold</t>
   </si>
   <si>
-    <t>have_pay</t>
-  </si>
-  <si>
-    <t>player_name</t>
-  </si>
-  <si>
-    <t>now_use_skin</t>
+    <t>LvHp</t>
+  </si>
+  <si>
+    <t>LvWeapon</t>
   </si>
   <si>
     <t>level</t>
@@ -99,9 +96,6 @@
     <t>估算数值</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>商城</t>
   </si>
   <si>
@@ -109,6 +103,9 @@
   </si>
   <si>
     <t>对应金币</t>
+  </si>
+  <si>
+    <t>MaxLv</t>
   </si>
   <si>
     <t>基础数值</t>
@@ -169,8 +166,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -198,12 +195,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -218,11 +230,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,9 +269,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,86 +324,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -360,7 +357,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,13 +387,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,7 +405,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,13 +417,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,13 +483,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,25 +501,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,79 +537,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,6 +548,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -569,26 +577,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,26 +610,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -651,6 +624,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -659,10 +656,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -671,137 +668,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -830,15 +827,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
@@ -1366,8 +1357,8 @@
   <sheetPr/>
   <dimension ref="A1:T109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1458,28 +1449,28 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1487,13 +1478,13 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1602,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="H11">
-        <f>INT(5*POWER(1.09,G11))</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="J11">
@@ -1661,10 +1652,10 @@
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="3">
         <v>2</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P13" s="9">
         <v>6</v>
       </c>
     </row>
@@ -1716,13 +1707,13 @@
         <v>56</v>
       </c>
       <c r="P15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" t="s">
         <v>28</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>29</v>
-      </c>
-      <c r="R15" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="5:18">
@@ -1818,7 +1809,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="19" spans="5:11">
+    <row r="19" spans="5:16">
       <c r="E19">
         <v>13</v>
       </c>
@@ -1841,6 +1832,12 @@
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
+      <c r="O19" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="20" spans="5:20">
       <c r="E20">
@@ -1866,10 +1863,10 @@
         <v>76</v>
       </c>
       <c r="P20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q20" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
@@ -1899,13 +1896,13 @@
         <v>80</v>
       </c>
       <c r="O21" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="P21" s="11" t="s">
+      <c r="Q21" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
@@ -1935,13 +1932,13 @@
         <v>84</v>
       </c>
       <c r="O22" t="s">
+        <v>35</v>
+      </c>
+      <c r="P22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P22" s="2" t="s">
+      <c r="Q22" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
@@ -1971,17 +1968,17 @@
         <v>88</v>
       </c>
       <c r="O23" t="s">
+        <v>38</v>
+      </c>
+      <c r="P23" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="P23" s="12">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
     </row>
     <row r="24" spans="5:20">
       <c r="E24">
@@ -2007,17 +2004,17 @@
         <v>92</v>
       </c>
       <c r="O24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P24" s="2">
         <v>7</v>
       </c>
-      <c r="Q24" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
+      <c r="Q24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
     </row>
     <row r="25" spans="5:20">
       <c r="E25">
@@ -2043,17 +2040,17 @@
         <v>96</v>
       </c>
       <c r="O25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P25" s="2">
         <v>1000</v>
       </c>
-      <c r="Q25" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
+      <c r="Q25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
     </row>
     <row r="26" spans="5:11">
       <c r="E26">
@@ -4000,8 +3997,8 @@
       </c>
     </row>
     <row r="109" spans="3:3">
-      <c r="C109" s="13" t="s">
-        <v>45</v>
+      <c r="C109" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4041,7 +4038,7 @@
   <sheetData>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -4174,7 +4171,7 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4268,7 +4265,7 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25">
         <v>20</v>
